--- a/data/trans_orig/P70A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70A_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66CF3540-27D9-4730-9FC5-3305D3C28035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D88B48DB-AAC6-4BFB-A83A-F0263022C7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5071FBBE-7F13-4F91-A267-BD11D8DFC6AA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8F7749D3-42D7-4FE2-9A58-F655D9FD4EC3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="193">
   <si>
     <t>Población según si dichos problemas de salud fueron causados por su trabajo en 2023 (Tasa respuesta: 10,41%)</t>
   </si>
@@ -74,7 +74,7 @@
     <t>89,24%</t>
   </si>
   <si>
-    <t>48,43%</t>
+    <t>44,48%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,19 +83,19 @@
     <t>57,48%</t>
   </si>
   <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
   </si>
   <si>
     <t>72,69%</t>
   </si>
   <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
   </si>
   <si>
     <t>Sí, parcialmente</t>
@@ -113,13 +113,13 @@
     <t>7,27%</t>
   </si>
   <si>
-    <t>36,07%</t>
+    <t>33,49%</t>
   </si>
   <si>
     <t>3,79%</t>
   </si>
   <si>
-    <t>19,39%</t>
+    <t>24,32%</t>
   </si>
   <si>
     <t>Sí, totalmente</t>
@@ -128,25 +128,25 @@
     <t>10,76%</t>
   </si>
   <si>
-    <t>51,57%</t>
+    <t>55,52%</t>
   </si>
   <si>
     <t>35,25%</t>
   </si>
   <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
   </si>
   <si>
     <t>23,52%</t>
   </si>
   <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
   </si>
   <si>
     <t>100%</t>
@@ -158,82 +158,82 @@
     <t>77,95%</t>
   </si>
   <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
   </si>
   <si>
     <t>85,19%</t>
   </si>
   <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
   </si>
   <si>
     <t>81,93%</t>
   </si>
   <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
   </si>
   <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
   </si>
   <si>
     <t>6,97%</t>
   </si>
   <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
   </si>
   <si>
     <t>7,07%</t>
   </si>
   <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
   </si>
   <si>
     <t>14,85%</t>
   </si>
   <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
   </si>
   <si>
     <t>7,84%</t>
   </si>
   <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
   </si>
   <si>
     <t>10,99%</t>
   </si>
   <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -242,55 +242,55 @@
     <t>83,67%</t>
   </si>
   <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
   </si>
   <si>
     <t>83,06%</t>
   </si>
   <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
   </si>
   <si>
     <t>83,36%</t>
   </si>
   <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
   </si>
   <si>
     <t>14,25%</t>
   </si>
   <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
   </si>
   <si>
     <t>8,18%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
   </si>
   <si>
     <t>11,11%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
   </si>
   <si>
     <t>2,08%</t>
@@ -299,25 +299,25 @@
     <t>0,16%</t>
   </si>
   <si>
-    <t>7,02%</t>
+    <t>6,33%</t>
   </si>
   <si>
     <t>8,76%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
   </si>
   <si>
     <t>5,53%</t>
   </si>
   <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -326,79 +326,79 @@
     <t>79,53%</t>
   </si>
   <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
   </si>
   <si>
     <t>73,85%</t>
   </si>
   <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
   </si>
   <si>
     <t>77,29%</t>
   </si>
   <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
   </si>
   <si>
     <t>12,9%</t>
   </si>
   <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
   </si>
   <si>
     <t>9,42%</t>
   </si>
   <si>
-    <t>4,99%</t>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
   </si>
   <si>
     <t>13,31%</t>
   </si>
   <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
   </si>
   <si>
     <t>13,25%</t>
   </si>
   <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
   </si>
   <si>
     <t>13,28%</t>
   </si>
   <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -407,82 +407,82 @@
     <t>61,25%</t>
   </si>
   <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
   </si>
   <si>
     <t>66,47%</t>
   </si>
   <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
   </si>
   <si>
     <t>63,64%</t>
   </si>
   <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
   </si>
   <si>
     <t>17,89%</t>
   </si>
   <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
   </si>
   <si>
     <t>15,31%</t>
   </si>
   <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
   </si>
   <si>
     <t>16,71%</t>
   </si>
   <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
   </si>
   <si>
     <t>20,86%</t>
   </si>
   <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
   </si>
   <si>
     <t>18,22%</t>
   </si>
   <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
   </si>
   <si>
     <t>19,65%</t>
   </si>
   <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -491,7 +491,7 @@
     <t>97,05%</t>
   </si>
   <si>
-    <t>74,47%</t>
+    <t>79,82%</t>
   </si>
   <si>
     <t>83,7%</t>
@@ -503,16 +503,16 @@
     <t>89,67%</t>
   </si>
   <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
   </si>
   <si>
     <t>2,95%</t>
   </si>
   <si>
-    <t>25,53%</t>
+    <t>20,18%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -521,7 +521,7 @@
     <t>1,32%</t>
   </si>
   <si>
-    <t>9,4%</t>
+    <t>9,82%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -536,85 +536,82 @@
     <t>9,01%</t>
   </si>
   <si>
-    <t>30,15%</t>
+    <t>29,58%</t>
   </si>
   <si>
     <t>77,63%</t>
   </si>
   <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
   </si>
   <si>
     <t>76,76%</t>
   </si>
   <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
   </si>
   <si>
     <t>77,22%</t>
   </si>
   <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
   </si>
   <si>
     <t>10,35%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
+    <t>8,05%</t>
   </si>
   <si>
     <t>10,28%</t>
   </si>
   <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
   </si>
   <si>
     <t>12,14%</t>
   </si>
   <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
   </si>
   <si>
     <t>12,49%</t>
   </si>
   <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1029,7 +1026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454C29E5-2E07-41EC-A1D5-692039D8A691}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E8676E-EBB2-40DE-B151-ED8A8EA78FBC}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1822,13 +1819,13 @@
         <v>13319</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -1837,13 +1834,13 @@
         <v>15618</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>39</v>
@@ -1852,13 +1849,13 @@
         <v>28937</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,7 +2458,7 @@
         <v>180</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="M29" s="7">
         <v>107</v>
@@ -2470,13 +2467,13 @@
         <v>88330</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,13 +2488,13 @@
         <v>55284</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H30" s="7">
         <v>65</v>
@@ -2506,13 +2503,13 @@
         <v>52033</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M30" s="7">
         <v>115</v>
@@ -2521,13 +2518,13 @@
         <v>107317</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,7 +2580,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70A_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D88B48DB-AAC6-4BFB-A83A-F0263022C7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6D2A357-93FA-481F-8CBC-7C2AE0C46076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8F7749D3-42D7-4FE2-9A58-F655D9FD4EC3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6947E404-2D99-4BBE-8967-621B7F7F25CF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1026,7 +1026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E8676E-EBB2-40DE-B151-ED8A8EA78FBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564F0691-8190-4802-9A70-287DE19A2F7F}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70A_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6D2A357-93FA-481F-8CBC-7C2AE0C46076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9DAFFC9-F727-49C1-A5EE-2DFEA7BAF19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6947E404-2D99-4BBE-8967-621B7F7F25CF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{897849AE-6A07-4D67-9210-A95BFC265447}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="194">
   <si>
     <t>Población según si dichos problemas de salud fueron causados por su trabajo en 2023 (Tasa respuesta: 10,41%)</t>
   </si>
@@ -74,7 +74,7 @@
     <t>89,24%</t>
   </si>
   <si>
-    <t>44,48%</t>
+    <t>48,43%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,19 +83,19 @@
     <t>57,48%</t>
   </si>
   <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
   </si>
   <si>
     <t>72,69%</t>
   </si>
   <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
   </si>
   <si>
     <t>Sí, parcialmente</t>
@@ -113,13 +113,13 @@
     <t>7,27%</t>
   </si>
   <si>
-    <t>33,49%</t>
+    <t>36,07%</t>
   </si>
   <si>
     <t>3,79%</t>
   </si>
   <si>
-    <t>24,32%</t>
+    <t>19,39%</t>
   </si>
   <si>
     <t>Sí, totalmente</t>
@@ -128,25 +128,25 @@
     <t>10,76%</t>
   </si>
   <si>
-    <t>55,52%</t>
+    <t>51,57%</t>
   </si>
   <si>
     <t>35,25%</t>
   </si>
   <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
   </si>
   <si>
     <t>23,52%</t>
   </si>
   <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
   </si>
   <si>
     <t>100%</t>
@@ -158,460 +158,463 @@
     <t>77,95%</t>
   </si>
   <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
   </si>
   <si>
     <t>85,19%</t>
   </si>
   <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
   </si>
   <si>
     <t>81,93%</t>
   </si>
   <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
   </si>
   <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
   </si>
   <si>
     <t>6,97%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
   </si>
   <si>
     <t>7,07%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
   </si>
   <si>
     <t>14,85%</t>
   </si>
   <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
   </si>
   <si>
     <t>7,84%</t>
   </si>
   <si>
-    <t>2,9%</t>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
   </si>
   <si>
     <t>16,18%</t>
   </si>
   <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
     <t>12,49%</t>
   </si>
   <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1026,7 +1029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564F0691-8190-4802-9A70-287DE19A2F7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E887E0-4AE5-4D44-898E-5BC261F1B5D6}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1819,13 +1822,13 @@
         <v>13319</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -1834,13 +1837,13 @@
         <v>15618</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>39</v>
@@ -1849,13 +1852,13 @@
         <v>28937</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2458,7 +2461,7 @@
         <v>180</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="M29" s="7">
         <v>107</v>
@@ -2467,13 +2470,13 @@
         <v>88330</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,13 +2491,13 @@
         <v>55284</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H30" s="7">
         <v>65</v>
@@ -2503,13 +2506,13 @@
         <v>52033</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M30" s="7">
         <v>115</v>
@@ -2518,13 +2521,13 @@
         <v>107317</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,7 +2583,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70A_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9DAFFC9-F727-49C1-A5EE-2DFEA7BAF19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BC8BDEF-FD37-451D-8F96-B19D6F80C848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{897849AE-6A07-4D67-9210-A95BFC265447}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B1478DFC-01BB-4CCE-AFCA-1356395A20AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="199">
   <si>
     <t>Población según si dichos problemas de salud fueron causados por su trabajo en 2023 (Tasa respuesta: 10,41%)</t>
   </si>
@@ -65,37 +65,37 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
   </si>
   <si>
     <t>Sí, parcialmente</t>
@@ -110,511 +110,526 @@
     <t>18,74%</t>
   </si>
   <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
   </si>
   <si>
     <t>Sí, totalmente</t>
   </si>
   <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
   </si>
   <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1029,8 +1044,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E887E0-4AE5-4D44-898E-5BC261F1B5D6}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0AD59C-83F6-42C9-8183-8D8545106234}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1150,7 +1165,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>16196</v>
+        <v>15678</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1165,7 +1180,7 @@
         <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>11353</v>
+        <v>10147</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1180,7 +1195,7 @@
         <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>27549</v>
+        <v>25825</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1216,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>1436</v>
+        <v>1153</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1231,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>1436</v>
+        <v>1153</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>26</v>
@@ -1252,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>1953</v>
+        <v>1662</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>29</v>
@@ -1267,7 +1282,7 @@
         <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>6962</v>
+        <v>6240</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>31</v>
@@ -1282,7 +1297,7 @@
         <v>4</v>
       </c>
       <c r="N6" s="7">
-        <v>8914</v>
+        <v>7902</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>34</v>
@@ -1303,7 +1318,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>18149</v>
+        <v>17340</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>37</v>
@@ -1318,7 +1333,7 @@
         <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>19750</v>
+        <v>17540</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>37</v>
@@ -1333,7 +1348,7 @@
         <v>20</v>
       </c>
       <c r="N7" s="7">
-        <v>37899</v>
+        <v>34880</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>37</v>
@@ -1356,7 +1371,7 @@
         <v>33</v>
       </c>
       <c r="D8" s="7">
-        <v>53008</v>
+        <v>53931</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>39</v>
@@ -1371,7 +1386,7 @@
         <v>63</v>
       </c>
       <c r="I8" s="7">
-        <v>70849</v>
+        <v>67275</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>42</v>
@@ -1386,7 +1401,7 @@
         <v>96</v>
       </c>
       <c r="N8" s="7">
-        <v>123857</v>
+        <v>121206</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>45</v>
@@ -1407,7 +1422,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>4896</v>
+        <v>5924</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>48</v>
@@ -1422,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="7">
-        <v>5798</v>
+        <v>5307</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>51</v>
@@ -1437,7 +1452,7 @@
         <v>9</v>
       </c>
       <c r="N9" s="7">
-        <v>10694</v>
+        <v>11231</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>54</v>
@@ -1458,7 +1473,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>10096</v>
+        <v>9810</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>57</v>
@@ -1473,7 +1488,7 @@
         <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>6522</v>
+        <v>5539</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>60</v>
@@ -1488,7 +1503,7 @@
         <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>16619</v>
+        <v>15348</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>63</v>
@@ -1509,7 +1524,7 @@
         <v>44</v>
       </c>
       <c r="D11" s="7">
-        <v>68000</v>
+        <v>69665</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>37</v>
@@ -1524,7 +1539,7 @@
         <v>74</v>
       </c>
       <c r="I11" s="7">
-        <v>83170</v>
+        <v>78120</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>37</v>
@@ -1539,7 +1554,7 @@
         <v>118</v>
       </c>
       <c r="N11" s="7">
-        <v>151169</v>
+        <v>147785</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>37</v>
@@ -1562,7 +1577,7 @@
         <v>75</v>
       </c>
       <c r="D12" s="7">
-        <v>83063</v>
+        <v>81014</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>67</v>
@@ -1577,7 +1592,7 @@
         <v>123</v>
       </c>
       <c r="I12" s="7">
-        <v>88220</v>
+        <v>82112</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>70</v>
@@ -1592,7 +1607,7 @@
         <v>198</v>
       </c>
       <c r="N12" s="7">
-        <v>171282</v>
+        <v>163125</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>73</v>
@@ -1613,7 +1628,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>14145</v>
+        <v>13754</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>76</v>
@@ -1628,7 +1643,7 @@
         <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>8691</v>
+        <v>8421</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>79</v>
@@ -1643,7 +1658,7 @@
         <v>25</v>
       </c>
       <c r="N13" s="7">
-        <v>22836</v>
+        <v>22175</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>82</v>
@@ -1664,7 +1679,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>2066</v>
+        <v>2006</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>85</v>
@@ -1679,7 +1694,7 @@
         <v>12</v>
       </c>
       <c r="I14" s="7">
-        <v>9300</v>
+        <v>8826</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>88</v>
@@ -1694,7 +1709,7 @@
         <v>15</v>
       </c>
       <c r="N14" s="7">
-        <v>11366</v>
+        <v>10833</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>91</v>
@@ -1715,7 +1730,7 @@
         <v>89</v>
       </c>
       <c r="D15" s="7">
-        <v>99274</v>
+        <v>96774</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>37</v>
@@ -1730,7 +1745,7 @@
         <v>149</v>
       </c>
       <c r="I15" s="7">
-        <v>106211</v>
+        <v>99359</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>37</v>
@@ -1745,7 +1760,7 @@
         <v>238</v>
       </c>
       <c r="N15" s="7">
-        <v>205485</v>
+        <v>196133</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>37</v>
@@ -1768,7 +1783,7 @@
         <v>99</v>
       </c>
       <c r="D16" s="7">
-        <v>147936</v>
+        <v>338160</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>95</v>
@@ -1783,7 +1798,7 @@
         <v>136</v>
       </c>
       <c r="I16" s="7">
-        <v>89377</v>
+        <v>82568</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>98</v>
@@ -1798,7 +1813,7 @@
         <v>235</v>
       </c>
       <c r="N16" s="7">
-        <v>237313</v>
+        <v>420728</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>101</v>
@@ -1819,7 +1834,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="7">
-        <v>13319</v>
+        <v>13119</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>104</v>
@@ -1834,7 +1849,7 @@
         <v>25</v>
       </c>
       <c r="I17" s="7">
-        <v>15618</v>
+        <v>14555</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>107</v>
@@ -1849,7 +1864,7 @@
         <v>39</v>
       </c>
       <c r="N17" s="7">
-        <v>28937</v>
+        <v>27674</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>110</v>
@@ -1858,7 +1873,7 @@
         <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1870,46 +1885,46 @@
         <v>22</v>
       </c>
       <c r="D18" s="7">
-        <v>24758</v>
+        <v>23831</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>23</v>
       </c>
       <c r="I18" s="7">
-        <v>16030</v>
+        <v>14687</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>45</v>
       </c>
       <c r="N18" s="7">
-        <v>40788</v>
+        <v>38518</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,7 +1936,7 @@
         <v>135</v>
       </c>
       <c r="D19" s="7">
-        <v>186014</v>
+        <v>375109</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>37</v>
@@ -1936,7 +1951,7 @@
         <v>184</v>
       </c>
       <c r="I19" s="7">
-        <v>121025</v>
+        <v>111811</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>37</v>
@@ -1951,7 +1966,7 @@
         <v>319</v>
       </c>
       <c r="N19" s="7">
-        <v>307039</v>
+        <v>486920</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>37</v>
@@ -1965,7 +1980,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1974,46 +1989,46 @@
         <v>53</v>
       </c>
       <c r="D20" s="7">
-        <v>48195</v>
+        <v>45749</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H20" s="7">
         <v>74</v>
       </c>
       <c r="I20" s="7">
-        <v>44249</v>
+        <v>40781</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>127</v>
       </c>
       <c r="N20" s="7">
-        <v>92444</v>
+        <v>86530</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2025,46 +2040,46 @@
         <v>14</v>
       </c>
       <c r="D21" s="7">
-        <v>14076</v>
+        <v>13032</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
       </c>
       <c r="I21" s="7">
-        <v>10191</v>
+        <v>9602</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M21" s="7">
         <v>32</v>
       </c>
       <c r="N21" s="7">
-        <v>24267</v>
+        <v>22634</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2076,46 +2091,46 @@
         <v>17</v>
       </c>
       <c r="D22" s="7">
-        <v>16411</v>
+        <v>15696</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
       </c>
       <c r="I22" s="7">
-        <v>12128</v>
+        <v>11245</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
       </c>
       <c r="N22" s="7">
-        <v>28539</v>
+        <v>26940</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2127,7 +2142,7 @@
         <v>84</v>
       </c>
       <c r="D23" s="7">
-        <v>78682</v>
+        <v>74477</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>37</v>
@@ -2142,7 +2157,7 @@
         <v>111</v>
       </c>
       <c r="I23" s="7">
-        <v>66568</v>
+        <v>61628</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>37</v>
@@ -2157,7 +2172,7 @@
         <v>195</v>
       </c>
       <c r="N23" s="7">
-        <v>145250</v>
+        <v>136105</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>37</v>
@@ -2171,22 +2186,22 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>5249</v>
+        <v>4145</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>13</v>
@@ -2195,31 +2210,31 @@
         <v>10</v>
       </c>
       <c r="I24" s="7">
-        <v>5599</v>
+        <v>5203</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M24" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N24" s="7">
-        <v>10848</v>
+        <v>9348</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2231,16 +2246,16 @@
         <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2255,22 +2270,22 @@
         <v>22</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,37 +2306,37 @@
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>1090</v>
+        <v>1014</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>1090</v>
+        <v>1014</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,10 +2345,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" s="7">
-        <v>5408</v>
+        <v>4312</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>37</v>
@@ -2348,7 +2363,7 @@
         <v>12</v>
       </c>
       <c r="I27" s="7">
-        <v>6689</v>
+        <v>6217</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>37</v>
@@ -2360,10 +2375,10 @@
         <v>37</v>
       </c>
       <c r="M27" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N27" s="7">
-        <v>12097</v>
+        <v>10529</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>37</v>
@@ -2377,55 +2392,53 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>275</v>
+        <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>353647</v>
+        <v>852</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="H28" s="7">
-        <v>413</v>
-      </c>
-      <c r="I28" s="7">
-        <v>309646</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" s="7"/>
       <c r="J28" s="7" t="s">
         <v>170</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M28" s="7">
-        <v>688</v>
+        <v>1</v>
       </c>
       <c r="N28" s="7">
-        <v>663293</v>
+        <v>852</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,49 +2447,47 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
-        <v>46596</v>
+        <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H29" s="7">
-        <v>63</v>
-      </c>
-      <c r="I29" s="7">
-        <v>41734</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" s="7"/>
       <c r="J29" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="M29" s="7">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="N29" s="7">
-        <v>88330</v>
+        <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>182</v>
+        <v>21</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,49 +2496,47 @@
         <v>28</v>
       </c>
       <c r="C30" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D30" s="7">
-        <v>55284</v>
+        <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>185</v>
+        <v>21</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>186</v>
+        <v>22</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="H30" s="7">
-        <v>65</v>
-      </c>
-      <c r="I30" s="7">
-        <v>52033</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" s="7"/>
       <c r="J30" s="7" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="M30" s="7">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="N30" s="7">
-        <v>107317</v>
+        <v>0</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>190</v>
+        <v>21</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>191</v>
+        <v>22</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,63 +2545,268 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
+        <v>852</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1</v>
+      </c>
+      <c r="N31" s="7">
+        <v>852</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>275</v>
+      </c>
+      <c r="D32" s="7">
+        <v>539529</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H32" s="7">
+        <v>413</v>
+      </c>
+      <c r="I32" s="7">
+        <v>288086</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="M32" s="7">
+        <v>688</v>
+      </c>
+      <c r="N32" s="7">
+        <v>827615</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>44</v>
+      </c>
+      <c r="D33" s="7">
+        <v>45996</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H33" s="7">
+        <v>63</v>
+      </c>
+      <c r="I33" s="7">
+        <v>39038</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M33" s="7">
+        <v>107</v>
+      </c>
+      <c r="N33" s="7">
+        <v>85034</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="7">
+        <v>50</v>
+      </c>
+      <c r="D34" s="7">
+        <v>53004</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H34" s="7">
+        <v>65</v>
+      </c>
+      <c r="I34" s="7">
+        <v>47551</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="M34" s="7">
+        <v>115</v>
+      </c>
+      <c r="N34" s="7">
+        <v>100556</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>369</v>
       </c>
-      <c r="D31" s="7">
-        <v>455526</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>638529</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" s="7">
         <v>541</v>
       </c>
-      <c r="I31" s="7">
-        <v>403413</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>374675</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M35" s="7">
         <v>910</v>
       </c>
-      <c r="N31" s="7">
-        <v>858939</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>193</v>
+      <c r="N35" s="7">
+        <v>1013204</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
